--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_29.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1515115.101544897</v>
+        <v>1565254.840550731</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779842</v>
+        <v>16641689.10798709</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484451</v>
+        <v>492028.934248445</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6470063.847947588</v>
+        <v>6485863.473297818</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>128.0557237821425</v>
       </c>
       <c r="E2" t="n">
-        <v>332.4291174559668</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
@@ -725,7 +725,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -832,10 +832,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>146.6325435271071</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>231.3047952522703</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53.36450271208233</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
@@ -902,10 +902,10 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>237.7130235710145</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -959,10 +959,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1066,7 +1066,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022511</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>125.4289004454252</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>39.34122081347544</v>
+        <v>378.8930818762257</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1303,7 +1303,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>84.29140345193706</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1373,7 +1373,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>163.5395542426778</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1385,7 +1385,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>236.0942751322854</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1421,7 +1421,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>50.30825486907117</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1594,7 +1594,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>85.55329631630661</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>18.64034175572425</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1670,7 +1670,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>365.2190823866837</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1777,13 +1777,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>41.48733421943305</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>104.6990987647613</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1831,7 +1831,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1898,7 +1898,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>78.23495004136993</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>123.2901323038659</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,10 +2056,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>172.6623007436915</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791322673</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>59.41244209702488</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2254,10 +2254,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2293,7 +2293,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>136.0564930766999</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2533,7 +2533,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>144.4937753855484</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2716,7 +2716,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>73.99920364759211</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225763</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3202,7 +3202,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3284,7 +3284,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791315919</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.0567773522574</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3490,7 +3490,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>221.9986082496085</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3670,16 +3670,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>73.01514676193516</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3721,7 +3721,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>166.1507936381775</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3791,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>33.08339867820337</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3800,7 +3800,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>394.4188734803712</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3898,7 +3898,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>101.119522020794</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3910,13 +3910,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>22.28534392847709</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4040,7 +4040,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>230.1678826089916</v>
+        <v>147.3525275309917</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4150,7 +4150,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -4186,7 +4186,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4195,13 +4195,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>237.7893185997721</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>107.3792913045954</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1250.721030006719</v>
+        <v>666.7308757900381</v>
       </c>
       <c r="C2" t="n">
-        <v>822.1393557439876</v>
+        <v>228.5884029734614</v>
       </c>
       <c r="D2" t="n">
-        <v>393.5576814812559</v>
+        <v>99.23918703190333</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>69.50484623060257</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021437</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021437</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021437</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021437</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>480.9325081331322</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>1046.195539050785</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>1046.195539050785</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>1046.195539050785</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>1046.195539050785</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1611.458569968438</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>2114.736969257661</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2114.736969257661</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010718</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010718</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010718</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010718</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1921.274083944545</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1920.459033395982</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111166</v>
+        <v>1501.316569975293</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.980196451223</v>
+        <v>1093.030446274946</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>551.8495656715072</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>445.3931045081495</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>350.3028156547027</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>256.1824009816564</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>172.798562597818</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>87.4134728640019</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021437</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>71.74149384067196</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>396.2998188068843</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>961.562849724537</v>
       </c>
       <c r="L3" t="n">
-        <v>384.5656667282782</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="M3" t="n">
-        <v>384.5656667282782</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="N3" t="n">
-        <v>384.5656667282782</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1591.744804064684</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1708.917582159023</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1645.462144607406</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1515.283500938008</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1338.946953937976</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1139.829435999976</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>954.5066817331697</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>799.6392459720496</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>673.1534667512703</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>884.4397056785397</v>
+        <v>786.2962769768435</v>
       </c>
       <c r="C4" t="n">
-        <v>711.8779941617646</v>
+        <v>786.2962769768435</v>
       </c>
       <c r="D4" t="n">
-        <v>546.0000013632873</v>
+        <v>786.2962769768435</v>
       </c>
       <c r="E4" t="n">
-        <v>376.2419976140245</v>
+        <v>616.5382732275807</v>
       </c>
       <c r="F4" t="n">
-        <v>199.5349435757807</v>
+        <v>439.8312191893369</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>274.2399442151645</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>134.337769905539</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021437</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>45.67782068021437</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>45.67782068021437</v>
       </c>
       <c r="L4" t="n">
-        <v>395.2818083374338</v>
+        <v>446.7794456117052</v>
       </c>
       <c r="M4" t="n">
-        <v>815.3347072823371</v>
+        <v>906.2633127926182</v>
       </c>
       <c r="N4" t="n">
-        <v>815.3347072823371</v>
+        <v>1348.522115950263</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1768.191365176044</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2115.698259146386</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010718</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2262.47321271609</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2103.231844014087</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1857.352397592542</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>1578.919396845647</v>
       </c>
       <c r="V4" t="n">
-        <v>1697.183430080417</v>
+        <v>1291.963888716077</v>
       </c>
       <c r="W4" t="n">
-        <v>1549.069749750006</v>
+        <v>1019.937484302369</v>
       </c>
       <c r="X4" t="n">
-        <v>1303.677995083419</v>
+        <v>786.2962769768435</v>
       </c>
       <c r="Y4" t="n">
-        <v>1076.258324397527</v>
+        <v>786.2962769768435</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>552.7406073489124</v>
+        <v>793.6783655277644</v>
       </c>
       <c r="C5" t="n">
-        <v>518.6385385727397</v>
+        <v>759.5762967515918</v>
       </c>
       <c r="D5" t="n">
-        <v>486.7691577875882</v>
+        <v>727.7069159664404</v>
       </c>
       <c r="E5" t="n">
-        <v>58.18748352485655</v>
+        <v>293.9321711247356</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="L5" t="n">
-        <v>267.8706684926505</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M5" t="n">
-        <v>267.8706684926505</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1393.464329137293</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1393.464329137293</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V5" t="n">
-        <v>1030.847379071119</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W5" t="n">
-        <v>625.9919244821526</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X5" t="n">
-        <v>610.8898651018674</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="Y5" t="n">
-        <v>606.6441454419248</v>
+        <v>815.9375319722682</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>884.4397056785397</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C7" t="n">
-        <v>711.8779941617646</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D7" t="n">
-        <v>546.0000013632873</v>
+        <v>403.0375283363599</v>
       </c>
       <c r="E7" t="n">
-        <v>376.2419976140245</v>
+        <v>233.2795245870971</v>
       </c>
       <c r="F7" t="n">
-        <v>199.5349435757807</v>
+        <v>56.57247054885332</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>395.2818083374338</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
-        <v>815.3347072823371</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1235.38760622724</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1235.38760622724</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.765608785789</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1675.765608785789</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>1675.765608785789</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1675.765608785789</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
-        <v>1549.069749750006</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1303.677995083419</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y7" t="n">
-        <v>1076.258324397527</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1654.761434047123</v>
+        <v>927.8253404203546</v>
       </c>
       <c r="C8" t="n">
-        <v>1620.659365270951</v>
+        <v>489.6828676037779</v>
       </c>
       <c r="D8" t="n">
-        <v>1580.920758388652</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>1152.33908412592</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>724.4716545351282</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>323.0738231583921</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>687.9235674375537</v>
+        <v>687.540662806093</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>2009.22077188965</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>2181.553498026298</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.26632015157</v>
+        <v>1762.411034605609</v>
       </c>
       <c r="Y8" t="n">
-        <v>1677.020600491627</v>
+        <v>1354.124910905262</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>947.4105542393174</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>774.8488427225424</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>608.9708499240651</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>439.2128461748023</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>262.5057921365585</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1612.040598310784</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1366.648843644196</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1139.229172958305</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2252.656868168566</v>
+        <v>2472.724095295529</v>
       </c>
       <c r="C11" t="n">
-        <v>1814.51439535199</v>
+        <v>2034.581622478952</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1598.671837653396</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>1164.897092811691</v>
       </c>
       <c r="F11" t="n">
-        <v>787.680751987495</v>
+        <v>737.0296632208992</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2829206107589</v>
+        <v>335.6318318441627</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397516</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J11" t="n">
         <v>531.9906641340331</v>
@@ -5045,46 +5045,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>2441.40092234507</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="M11" t="n">
-        <v>2441.40092234507</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="N11" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.83610851071</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344106</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302701</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239595</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112633</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.85743042965</v>
+        <v>4493.924657556612</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363476</v>
+        <v>4131.307707490439</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.38502577451</v>
+        <v>3726.452252901472</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.242562353821</v>
+        <v>3307.309789480783</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653474</v>
+        <v>2899.023665780436</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5112,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I12" t="n">
         <v>122.7996498415728</v>
@@ -5121,19 +5121,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5173,7 +5173,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580464</v>
+        <v>947.2320137580465</v>
       </c>
       <c r="C13" t="n">
         <v>774.6703022412714</v>
@@ -5188,13 +5188,13 @@
         <v>262.3272516552875</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J13" t="n">
         <v>183.315661845805</v>
@@ -5203,10 +5203,10 @@
         <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N13" t="n">
         <v>1778.026668523459</v>
@@ -5242,7 +5242,7 @@
         <v>1225.468103503606</v>
       </c>
       <c r="Y13" t="n">
-        <v>1139.050632477034</v>
+        <v>998.0484328177145</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2252.656868168566</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C14" t="n">
-        <v>1814.514395351989</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D14" t="n">
-        <v>1378.604610526434</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E14" t="n">
-        <v>944.8298656847287</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F14" t="n">
-        <v>516.9624360939365</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G14" t="n">
-        <v>115.5646047172004</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J14" t="n">
         <v>531.9906641340331</v>
@@ -5282,46 +5282,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="M14" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="N14" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.83610851071</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344106</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302701</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239595</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112633</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.85743042965</v>
+        <v>4493.924657556612</v>
       </c>
       <c r="V14" t="n">
-        <v>3911.240480363476</v>
+        <v>4131.307707490439</v>
       </c>
       <c r="W14" t="n">
-        <v>3506.385025774509</v>
+        <v>3726.452252901472</v>
       </c>
       <c r="X14" t="n">
-        <v>3087.24256235382</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y14" t="n">
-        <v>2678.956438653473</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="15">
@@ -5349,7 +5349,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
@@ -5358,19 +5358,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1087.134188067672</v>
+        <v>1052.109260520272</v>
       </c>
       <c r="C16" t="n">
-        <v>914.5724765508969</v>
+        <v>879.5475490034969</v>
       </c>
       <c r="D16" t="n">
-        <v>748.6944837524196</v>
+        <v>713.6695562050197</v>
       </c>
       <c r="E16" t="n">
-        <v>578.9364800031568</v>
+        <v>543.9115524557569</v>
       </c>
       <c r="F16" t="n">
-        <v>402.229425964913</v>
+        <v>367.2044984175132</v>
       </c>
       <c r="G16" t="n">
-        <v>236.6381509907407</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111516</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J16" t="n">
         <v>183.315661845805</v>
@@ -5443,7 +5443,7 @@
         <v>876.2839981849017</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N16" t="n">
         <v>1778.026668523459</v>
@@ -5461,25 +5461,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2607.638921164964</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2361.759474743419</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="U16" t="n">
-        <v>2083.326473996525</v>
+        <v>2275.721217135017</v>
       </c>
       <c r="V16" t="n">
-        <v>1796.370965866955</v>
+        <v>1988.765709005447</v>
       </c>
       <c r="W16" t="n">
-        <v>1524.344561453247</v>
+        <v>1716.739304591738</v>
       </c>
       <c r="X16" t="n">
-        <v>1278.952806786659</v>
+        <v>1471.347549925151</v>
       </c>
       <c r="Y16" t="n">
-        <v>1278.952806786659</v>
+        <v>1243.927879239259</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2525.222555802381</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2087.080082985804</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1651.170298160248</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1217.395553318544</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>789.5281237277513</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>388.1302923510152</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H17" t="n">
-        <v>99.0001377942317</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137158</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742894</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.188327832467</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2443.248294085327</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2443.248294085327</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2443.248294085327</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3423.427960655633</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>4251.73783548903</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4798.236621447624</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068579</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.515547252416</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4625.448320125454</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4546.423118063464</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4183.806167997291</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3778.950713408324</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3359.808249987635</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2951.522126287288</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126643</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493066</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958599</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228136</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389752</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051591</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137158</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818292</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.2053465480415</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.650331805841</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679165</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741133</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474327</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132067</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.0589944924275</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1177.641509033253</v>
+        <v>1077.292364523333</v>
       </c>
       <c r="C19" t="n">
-        <v>1005.079797516478</v>
+        <v>904.7306530065579</v>
       </c>
       <c r="D19" t="n">
-        <v>839.2018047180006</v>
+        <v>738.8526602080806</v>
       </c>
       <c r="E19" t="n">
-        <v>669.4438009687378</v>
+        <v>569.0946564588179</v>
       </c>
       <c r="F19" t="n">
-        <v>492.7367469304941</v>
+        <v>392.3876024205741</v>
       </c>
       <c r="G19" t="n">
-        <v>327.1454719563217</v>
+        <v>226.7963274464018</v>
       </c>
       <c r="H19" t="n">
-        <v>187.2432976466962</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137158</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860614</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.921488157197</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251581</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.615237106071</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263716</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489497</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459839</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2693.825137029543</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2534.58376832754</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2288.704321905995</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2288.704321905995</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>2114.297957518428</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="W19" t="n">
-        <v>1842.271553104719</v>
+        <v>1741.922408594799</v>
       </c>
       <c r="X19" t="n">
-        <v>1596.879798438132</v>
+        <v>1496.530653928212</v>
       </c>
       <c r="Y19" t="n">
-        <v>1369.46012775224</v>
+        <v>1269.11098324232</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.677629643641</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5759,43 +5759,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1068.769857140659</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2292.381813755403</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>2005.426305625833</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1733.399901212125</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1488.008146545537</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1260.588475859646</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477115</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309365</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324589</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
         <v>267.852115244952</v>
@@ -6172,22 +6172,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962456</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419178</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1371.995166752589</v>
       </c>
       <c r="Y25" t="n">
         <v>1144.575496066698</v>
@@ -6212,28 +6212,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>388.1086717343205</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>388.1086717343205</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6263,13 +6263,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1015.441008084184</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C28" t="n">
-        <v>842.8792965674086</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2239.052964698928</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1952.097456569358</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1680.07105215565</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1434.679297489062</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1207.259626803171</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6449,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6686,40 +6686,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903951</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736201</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751428</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258801</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>286.0912842876363</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>120.500009313464</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436398</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6944,43 +6944,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="36">
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
         <v>267.852115244952</v>
@@ -7117,25 +7117,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2451.623182457407</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2173.190181710512</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W37" t="n">
-        <v>1614.208269167234</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
         <v>1144.575496066698</v>
@@ -7160,13 +7160,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7181,7 +7181,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
         <v>2588.899621423627</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>949.5782250957668</v>
+        <v>915.9519976190925</v>
       </c>
       <c r="C40" t="n">
-        <v>777.0165135789923</v>
+        <v>743.3902861023174</v>
       </c>
       <c r="D40" t="n">
-        <v>611.138520780515</v>
+        <v>577.5122933038401</v>
       </c>
       <c r="E40" t="n">
-        <v>441.3805170312523</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="F40" t="n">
-        <v>264.6734629930085</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>190.9207894961043</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2451.623182457406</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2173.190181710511</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1886.234673580942</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W40" t="n">
-        <v>1614.208269167233</v>
+        <v>1580.582041690559</v>
       </c>
       <c r="X40" t="n">
-        <v>1368.816514500646</v>
+        <v>1335.190287023971</v>
       </c>
       <c r="Y40" t="n">
-        <v>1141.396843814754</v>
+        <v>1107.77061633808</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2526.635886538672</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.493413722096</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.58362889654</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E41" t="n">
-        <v>1218.808884054835</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F41" t="n">
-        <v>790.9414544640431</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G41" t="n">
-        <v>389.5436230873069</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H41" t="n">
-        <v>100.4134685305232</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305232</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J41" t="n">
-        <v>100.4134685305232</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K41" t="n">
-        <v>100.4134685305232</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L41" t="n">
-        <v>382.9062805168643</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M41" t="n">
-        <v>1539.954115727415</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N41" t="n">
-        <v>2665.685099163862</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="O41" t="n">
-        <v>3645.864765734168</v>
+        <v>3461.990173263769</v>
       </c>
       <c r="P41" t="n">
-        <v>4474.174640567565</v>
+        <v>4290.300048097165</v>
       </c>
       <c r="Q41" t="n">
-        <v>5020.673426526159</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526159</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S41" t="n">
-        <v>5020.673426526159</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T41" t="n">
-        <v>4800.606199399198</v>
+        <v>4803.381259633332</v>
       </c>
       <c r="U41" t="n">
-        <v>4541.383896716215</v>
+        <v>4544.158956950349</v>
       </c>
       <c r="V41" t="n">
-        <v>4178.766946650041</v>
+        <v>4181.542006884175</v>
       </c>
       <c r="W41" t="n">
-        <v>3780.364044144616</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X41" t="n">
-        <v>3361.221580723927</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y41" t="n">
-        <v>2952.93545702358</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218159</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584583</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D42" t="n">
-        <v>405.0384635050115</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319652</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481268</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143107</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305232</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909808</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571931</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K42" t="n">
-        <v>1105.741513282917</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L42" t="n">
-        <v>1105.741513282917</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M42" t="n">
-        <v>1105.741513282917</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N42" t="n">
-        <v>1105.741513282917</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O42" t="n">
-        <v>1105.741513282917</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282917</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914992</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009332</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457715</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788285</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850284</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583478</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223583</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015791</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>969.1486746501395</v>
+        <v>944.0533615061026</v>
       </c>
       <c r="C43" t="n">
-        <v>867.0077433160042</v>
+        <v>771.4916499893277</v>
       </c>
       <c r="D43" t="n">
-        <v>701.1297505175266</v>
+        <v>605.6136571908503</v>
       </c>
       <c r="E43" t="n">
-        <v>531.371746768264</v>
+        <v>435.8556534415876</v>
       </c>
       <c r="F43" t="n">
-        <v>354.6646927300202</v>
+        <v>259.1485994033438</v>
       </c>
       <c r="G43" t="n">
-        <v>189.0734177558479</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H43" t="n">
-        <v>189.0734177558479</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305232</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952131</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663486</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343097</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372867</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598648</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.88030356899</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433323</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R43" t="n">
-        <v>2717.073078433323</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S43" t="n">
-        <v>2717.073078433323</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="T43" t="n">
-        <v>2471.193632011778</v>
+        <v>2446.098318867742</v>
       </c>
       <c r="U43" t="n">
-        <v>2192.760631264883</v>
+        <v>2167.665318120847</v>
       </c>
       <c r="V43" t="n">
-        <v>1905.805123135314</v>
+        <v>1880.709809991278</v>
       </c>
       <c r="W43" t="n">
-        <v>1633.778718721606</v>
+        <v>1608.683405577569</v>
       </c>
       <c r="X43" t="n">
-        <v>1388.386964055018</v>
+        <v>1363.291650910982</v>
       </c>
       <c r="Y43" t="n">
-        <v>1160.967293369127</v>
+        <v>1135.87198022509</v>
       </c>
     </row>
     <row r="44">
@@ -7634,16 +7634,16 @@
         <v>1215.131392205427</v>
       </c>
       <c r="F44" t="n">
-        <v>787.2639626146349</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G44" t="n">
         <v>385.8661312378989</v>
       </c>
       <c r="H44" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J44" t="n">
         <v>531.9906641340331</v>
@@ -7652,40 +7652,40 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L44" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="M44" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="N44" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O44" t="n">
-        <v>3292.836108510709</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P44" t="n">
-        <v>4121.145983344105</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q44" t="n">
-        <v>4667.6447693027</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.798834055757</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S44" t="n">
-        <v>4836.798834055757</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T44" t="n">
-        <v>4616.731606928795</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U44" t="n">
-        <v>4357.509304245812</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V44" t="n">
-        <v>3994.892354179638</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W44" t="n">
-        <v>3590.036899590672</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X44" t="n">
         <v>3357.544088874519</v>
@@ -7701,10 +7701,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.9077216724079</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C45" t="n">
-        <v>496.4512605090502</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D45" t="n">
         <v>401.3609716556035</v>
@@ -7719,10 +7719,10 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I45" t="n">
-        <v>122.7996498415727</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J45" t="n">
         <v>447.3579748077851</v>
@@ -7767,10 +7767,10 @@
         <v>1005.56483773407</v>
       </c>
       <c r="X45" t="n">
-        <v>850.6974019729503</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.211622752171</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1035.891962983371</v>
+        <v>1175.794137292997</v>
       </c>
       <c r="C46" t="n">
-        <v>863.3302514665961</v>
+        <v>1003.232425776222</v>
       </c>
       <c r="D46" t="n">
-        <v>697.4522586681188</v>
+        <v>837.3544329777443</v>
       </c>
       <c r="E46" t="n">
-        <v>527.6942549188561</v>
+        <v>667.5964292284815</v>
       </c>
       <c r="F46" t="n">
-        <v>350.9872008806121</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G46" t="n">
-        <v>185.3959259064398</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H46" t="n">
-        <v>185.3959259064398</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J46" t="n">
         <v>183.315661845805</v>
@@ -7810,10 +7810,10 @@
         <v>458.0741164169406</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N46" t="n">
         <v>1778.026668523459</v>
@@ -7828,28 +7828,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R46" t="n">
-        <v>2691.977765289287</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S46" t="n">
         <v>2532.736396587283</v>
       </c>
       <c r="T46" t="n">
-        <v>2532.736396587283</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U46" t="n">
-        <v>2254.303395840388</v>
+        <v>2008.423949418843</v>
       </c>
       <c r="V46" t="n">
-        <v>1967.347887710819</v>
+        <v>1721.468441289274</v>
       </c>
       <c r="W46" t="n">
-        <v>1695.32148329711</v>
+        <v>1721.468441289274</v>
       </c>
       <c r="X46" t="n">
-        <v>1455.13025238825</v>
+        <v>1476.076686622686</v>
       </c>
       <c r="Y46" t="n">
-        <v>1227.710581702358</v>
+        <v>1367.612756011984</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>570.9727585026795</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>570.9727585026794</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>508.3620194840646</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>570.9727585026795</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>90.34648051320312</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,22 +8134,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>405.1531564964554</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,25 +8371,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>296.5687363523682</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>640.5448952297621</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,19 +8608,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>58.38468441396105</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,16 +8693,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1126.736919799243</v>
       </c>
       <c r="O11" t="n">
-        <v>860.0355415814543</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,22 +8769,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8930,7 +8930,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294894</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>860.0355415814543</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>132.2533329504586</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>288.7351832965059</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11057,19 +11057,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>285.3462747336779</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294894</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>860.0355415814533</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>268.0111327346221</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>50.14457787893051</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.5985112554916</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>49.73195639979866</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>122.4480280049976</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>52.94985625022204</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>178.3951296147833</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>15.21302026266329</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>111.4236523045823</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-8.696932063401164e-13</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>111.4236523045824</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>201.6494670918336</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627257</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>3.146865729424294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>90.92021546249545</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>103.1553467313939</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25679,7 +25679,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>184.7831561774884</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25688,7 +25688,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>6.388026562705738</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>69.71657238081336</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>141.6500182959535</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25928,7 +25928,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>184.7831561774906</v>
+        <v>267.5985112554907</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,13 +26083,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>5.148518520149573</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>117.7661826744374</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>561815.2960783711</v>
+        <v>564823.7430284638</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>561815.2960783711</v>
+        <v>566803.896901438</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>561815.2960783711</v>
+        <v>566803.896901438</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>543951.3994599275</v>
+        <v>543951.3994599273</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>551627.082726985</v>
+        <v>566906.7701002063</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>566906.7701002064</v>
+        <v>566906.7701002063</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>566906.7701002063</v>
+        <v>566906.7701002061</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>566906.7701002064</v>
+        <v>566906.7701002061</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>559231.0868331486</v>
+        <v>543951.3994599275</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>543951.3994599272</v>
+        <v>543951.3994599273</v>
       </c>
     </row>
   </sheetData>
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>388706.806920546</v>
+        <v>388706.8069205461</v>
       </c>
       <c r="C2" t="n">
         <v>388706.8069205461</v>
       </c>
       <c r="D2" t="n">
-        <v>388706.8069205462</v>
+        <v>388706.8069205461</v>
       </c>
       <c r="E2" t="n">
-        <v>366504.8260294652</v>
+        <v>366504.8260294654</v>
       </c>
       <c r="F2" t="n">
         <v>366504.8260294653</v>
       </c>
       <c r="G2" t="n">
-        <v>371676.5655695111</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="H2" t="n">
         <v>381971.7484995804</v>
       </c>
       <c r="I2" t="n">
-        <v>381971.7484995803</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="J2" t="n">
-        <v>381971.7484995803</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="K2" t="n">
-        <v>381971.7484995803</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="L2" t="n">
-        <v>381971.7484995803</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="M2" t="n">
         <v>381971.7484995804</v>
@@ -26350,10 +26350,10 @@
         <v>381971.7484995804</v>
       </c>
       <c r="O2" t="n">
-        <v>376800.0089595344</v>
+        <v>366504.8260294655</v>
       </c>
       <c r="P2" t="n">
-        <v>366504.8260294652</v>
+        <v>366504.8260294654</v>
       </c>
     </row>
     <row r="3">
@@ -26363,43 +26363,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>191346.1037476935</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>31190.03493745907</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220373</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042852287</v>
+        <v>18928.52796216472</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996169</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>149391.5964256751</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>24846.9367839333</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830676</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.309604032037948e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181432.3864604621</v>
+        <v>150872.0522070762</v>
       </c>
       <c r="C4" t="n">
-        <v>181432.3864604621</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="D4" t="n">
-        <v>181432.3864604621</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
         <v>26563.08616012788</v>
@@ -26430,7 +26430,7 @@
         <v>26563.08616012788</v>
       </c>
       <c r="G4" t="n">
-        <v>26937.91713981307</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="H4" t="n">
         <v>27684.07875020268</v>
@@ -26448,13 +26448,13 @@
         <v>27684.07875020268</v>
       </c>
       <c r="M4" t="n">
-        <v>27684.07875020267</v>
+        <v>27684.07875020263</v>
       </c>
       <c r="N4" t="n">
         <v>27684.07875020268</v>
       </c>
       <c r="O4" t="n">
-        <v>27309.24777051748</v>
+        <v>26563.08616012788</v>
       </c>
       <c r="P4" t="n">
         <v>26563.08616012788</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>68342.74371696291</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>73519.34227764752</v>
@@ -26482,7 +26482,7 @@
         <v>73519.34227764752</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.3448002424</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319763</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764751</v>
+        <v>73519.34227764752</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5658.331663151679</v>
+        <v>-21854.09275118644</v>
       </c>
       <c r="C6" t="n">
-        <v>147849.6323228617</v>
+        <v>152546.9471893095</v>
       </c>
       <c r="D6" t="n">
-        <v>147849.6323228618</v>
+        <v>183736.9821267686</v>
       </c>
       <c r="E6" t="n">
-        <v>32067.37556965255</v>
+        <v>104610.7638267787</v>
       </c>
       <c r="F6" t="n">
-        <v>266422.3975916899</v>
+        <v>266345.839036893</v>
       </c>
       <c r="G6" t="n">
-        <v>263486.0925866034</v>
+        <v>257617.6788420378</v>
       </c>
       <c r="H6" t="n">
-        <v>264166.6761636235</v>
+        <v>276546.2068042026</v>
       </c>
       <c r="I6" t="n">
-        <v>276569.4311435851</v>
+        <v>276546.2068042026</v>
       </c>
       <c r="J6" t="n">
-        <v>165554.9657985949</v>
+        <v>127154.6103785275</v>
       </c>
       <c r="K6" t="n">
-        <v>276569.4311435851</v>
+        <v>251699.2700202693</v>
       </c>
       <c r="L6" t="n">
-        <v>276569.4311435851</v>
+        <v>276546.2068042026</v>
       </c>
       <c r="M6" t="n">
-        <v>80968.2518605176</v>
+        <v>141556.2621911992</v>
       </c>
       <c r="N6" t="n">
-        <v>276569.4311435852</v>
+        <v>276546.2068042025</v>
       </c>
       <c r="O6" t="n">
-        <v>273176.5251058193</v>
+        <v>266345.8390368932</v>
       </c>
       <c r="P6" t="n">
-        <v>266422.3975916898</v>
+        <v>266345.8390368931</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026795</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267145</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26826,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.16835663154</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="P4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
     </row>
   </sheetData>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4.137005040047435e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,40 +27009,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026795</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>96.54244810517741</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>784.903850993835</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675320534</v>
+        <v>69.06079487080547</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811760056</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026795</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.54244810517741</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938348</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,25 +27255,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026795</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.54244810517741</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>784.903850993835</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675320534</v>
+        <v>69.06079487080547</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811760056</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>303.4949631951574</v>
+      </c>
+      <c r="E2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>9.465190568306582</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.254829457195569</v>
-      </c>
-      <c r="E2" t="n">
-        <v>97.00787993732098</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27436,7 +27436,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>122.6735968424643</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>11.63304186765137</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>368.6720720679764</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27622,10 +27622,10 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>185.8757317238698</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27786,7 +27786,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>160.7958207444081</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -27822,19 +27822,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>143.8772399241461</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>52.65760510107418</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
+      <c r="F8" t="n">
         <v>400</v>
       </c>
-      <c r="D8" t="n">
-        <v>392.2094661638245</v>
-      </c>
-      <c r="E8" t="n">
-        <v>5.14113987318342</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27913,13 +27913,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28062,16 +28062,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>185.0147369176343</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-1.943445404606337e-13</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30760,7 +30760,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>570.9727585026795</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>570.9727585026794</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>508.3620194840646</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,10 +34778,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>570.9727585026795</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>90.34648051320312</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,22 +34854,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>405.1531564964554</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>296.5687363523682</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>640.5448952297621</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>58.38468441396105</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35413,16 +35413,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1126.736919799243</v>
       </c>
       <c r="O11" t="n">
-        <v>860.0355415814543</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697549</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35650,7 +35650,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294894</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35659,7 +35659,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>860.0355415814543</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697549</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,13 +35811,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,7 +35884,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35893,19 +35893,19 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>132.2533329504586</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36127,7 +36127,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>288.7351832965059</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36604,7 +36604,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37549,10 +37549,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>285.3462747336779</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37941,10 +37941,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294894</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38029,7 +38029,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>860.0355415814533</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
